--- a/Tidsplan/Tidsplan sprints, semester 3.xlsx
+++ b/Tidsplan/Tidsplan sprints, semester 3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bitious\Documents\Engineering\IHA_3_Semester_Project\Tidsplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PernilleLouise\Documents\Elektro\3. semester\E3PRJ3\Tidsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12433"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,25 +68,25 @@
     <t>Tidsplan for Gruppe 3</t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Sprint 5</t>
+    <t>Sprint 1 (19/2-10/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2 (16/3-5/4) </t>
+  </si>
+  <si>
+    <t>Sprint 3 (7/4-27/4)</t>
+  </si>
+  <si>
+    <t>Sprint 4 (28/4-18/5)</t>
+  </si>
+  <si>
+    <t>Sprint 5 (19/5-27/5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,12 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -327,21 +321,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -350,19 +329,40 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,9 +379,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -419,7 +419,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -454,6 +454,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -489,9 +506,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -667,50 +701,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.6">
+      <c r="A1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D2" s="37" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="D2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="51" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="52" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="50" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="50"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q2" s="44"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,40 +754,40 @@
       <c r="C3" s="1">
         <v>7</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="32">
         <v>8</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="32">
         <v>9</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="32">
         <v>10</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="28">
         <v>11</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="28">
         <v>12</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="28">
         <v>13</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <v>14</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="24">
         <v>15</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="24">
         <v>16</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="20">
         <v>17</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="20">
         <v>18</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="20">
         <v>19</v>
       </c>
       <c r="P3" s="4">
@@ -775,24 +809,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="1"/>
@@ -800,24 +834,24 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="1"/>
@@ -825,22 +859,22 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A6" s="17"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="1"/>
@@ -848,22 +882,22 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="31"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="5"/>
@@ -871,45 +905,45 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+    <row r="8" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="19"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A9" s="16"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="7"/>
@@ -917,22 +951,22 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="31"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="5"/>
@@ -940,45 +974,45 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="19"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A12" s="16"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="7"/>
@@ -986,22 +1020,22 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="31"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="5"/>
@@ -1009,45 +1043,45 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+    <row r="14" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="19"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A15" s="16"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="33"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="48"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="41"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="7"/>
@@ -1055,22 +1089,22 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="49"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="5"/>
@@ -1078,30 +1112,30 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+    <row r="17" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="19"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A18" s="16"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1124,7 +1158,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A19" s="17"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1147,7 +1181,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1169,7 +1203,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1192,7 +1226,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1215,7 +1249,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1238,7 +1272,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
@@ -1263,7 +1297,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
       <c r="C25" s="1" t="s">
@@ -1288,7 +1322,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="B26" s="14"/>
       <c r="C26" s="1" t="s">
@@ -1313,42 +1347,42 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.5">
       <c r="B32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B38" t="s">
         <v>13</v>
       </c>
@@ -1373,7 +1407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1385,7 +1419,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
